--- a/docs/CorpList.xlsx
+++ b/docs/CorpList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bluesquanium\OneDrive\바탕 화면\git\GoldenDuck\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d0d634b4e575ea7/바탕 화면/git/GoldenDuck/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF9CBC5-6A25-48D7-9472-D823E90389F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3EF9CBC5-6A25-48D7-9472-D823E90389F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D6C42AD-E119-482A-BB07-6F74D855A2BC}"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="4380" windowWidth="28755" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상장법인목록" sheetId="1" r:id="rId1"/>
@@ -35495,7 +35495,7 @@
   <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
